--- a/upload/excel_export_ci5.xlsx
+++ b/upload/excel_export_ci5.xlsx
@@ -20,42 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hbn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jnv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddfck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hgbh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Sr No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbjn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jnmk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kmnj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -87,6 +90,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,8 +142,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,13 +168,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.71"/>
@@ -167,20 +182,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -188,10 +206,13 @@
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -199,16 +220,22 @@
       <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
